--- a/target/ExpertSystem-1.0-SNAPSHOT/style/images/figure_12.xlsx
+++ b/target/ExpertSystem-1.0-SNAPSHOT/style/images/figure_12.xlsx
@@ -388,7 +388,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>111.05265252712941</v>
+        <v>110.9821879626495</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -396,7 +396,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>111.05263716978989</v>
+        <v>110.9821726178854</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -404,7 +404,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>156.15129444026036</v>
+        <v>156.01312313131825</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -412,7 +412,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>156.15127097826155</v>
+        <v>156.01309969411372</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -420,7 +420,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>200.4329318898935</v>
+        <v>200.22945990769028</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -428,7 +428,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>200.43290044190863</v>
+        <v>200.22942849637295</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -436,7 +436,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>243.94207940700298</v>
+        <v>243.67485903099924</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -444,7 +444,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>243.94204008369098</v>
+        <v>243.67481975595925</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -452,7 +452,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>286.85466973622641</v>
+        <v>286.52539769485134</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -460,7 +460,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>286.85462263544645</v>
+        <v>286.52535065372297</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
@@ -468,7 +468,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>329.19469180781039</v>
+        <v>328.80496430196189</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -476,7 +476,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>329.19463701300214</v>
+        <v>328.8049095779466</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -484,7 +484,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>370.91859729952341</v>
+        <v>370.47088194253774</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -492,7 +492,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>370.91853489330498</v>
+        <v>370.47081961799938</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -500,7 +500,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>412.02426005796303</v>
+        <v>411.52017606803389</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -508,7 +508,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>412.02419012859662</v>
+        <v>411.52010623088171</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
@@ -516,7 +516,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>452.55174659351974</v>
+        <v>451.99224031210616</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -524,7 +524,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>452.55166923051036</v>
+        <v>451.99216305160076</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
@@ -532,7 +532,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>492.55565983608778</v>
+        <v>491.94206912736325</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
@@ -540,7 +540,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>492.5555751247341</v>
+        <v>491.94198452867488</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
@@ -548,7 +548,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>532.05586316554695</v>
+        <v>531.389452069659</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
@@ -556,7 +556,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>532.055771182949</v>
+        <v>531.38936020968549</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
@@ -564,7 +564,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>571.07099196320371</v>
+        <v>570.35295665284718</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
@@ -572,7 +572,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>571.07089278417379</v>
+        <v>570.35285760620775</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
@@ -580,7 +580,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>609.6185575129175</v>
+        <v>608.85003163097156</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
@@ -588,7 +588,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>609.6184512100848</v>
+        <v>608.84992547011029</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
@@ -596,7 +596,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>647.71503984736489</v>
+        <v>646.89709930329104</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
@@ -604,7 +604,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>647.71492649127345</v>
+        <v>646.89698609857498</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
@@ -612,7 +612,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>685.3759709496851</v>
+        <v>684.50963824109647</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
@@ -620,7 +620,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>685.37585060888716</v>
+        <v>684.50951806090791</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
@@ -628,7 +628,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>722.61600950856973</v>
+        <v>721.70225762489406</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
@@ -636,7 +636,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>722.61588224971308</v>
+        <v>721.70213053571808</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
@@ -644,7 +644,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>759.44900825271566</v>
+        <v>758.48876420992804</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
@@ -652,7 +652,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>759.448874140626</v>
+        <v>758.48863027643404</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
@@ -660,7 +660,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>795.88807474636383</v>
+        <v>794.88222279507079</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
@@ -668,7 +668,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>795.88793384412384</v>
+        <v>794.88208208019114</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
@@ -676,7 +676,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>831.94562640635445</v>
+        <v>830.89501094986315</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
@@ -684,7 +684,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>831.94547877537696</v>
+        <v>830.8948635148663</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
@@ -692,7 +692,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>867.63344039869889</v>
+        <v>866.53886865290849</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
@@ -700,7 +700,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>867.63328609879659</v>
+        <v>866.53871455746855</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
@@ -708,7 +708,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>902.96269898585331</v>
+        <v>901.82494340872597</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
@@ -716,7 +716,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>902.96253807530547</v>
+        <v>901.82478271098819</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
@@ -724,7 +724,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>937.94403082201927</v>
+        <v>936.76383133689933</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
@@ -732,7 +732,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>937.94386335763329</v>
+        <v>936.76366409354262</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
@@ -740,7 +740,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>972.58754863074864</v>
+        <v>971.36561466481498</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
@@ -748,7 +748,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>972.5873746679199</v>
+        <v>971.36544093111036</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
@@ -756,7 +756,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>1006.9028836451407</v>
+        <v>1005.6398960017035</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
@@ -764,7 +764,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>1006.9027032379079</v>
+        <v>1005.6397158315702</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
@@ -772,7 +772,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>1040.8992171445232</v>
+        <v>1039.595829725663</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
@@ -780,7 +780,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>1040.8990303456214</v>
+        <v>1039.5956431717207</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
@@ -788,7 +788,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>1074.585309381539</v>
+        <v>1073.2421507756662</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
@@ -796,7 +796,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>1074.5851162424512</v>
+        <v>1073.2419578892857</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
@@ -804,7 +804,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>1107.9695261590057</v>
+        <v>1106.5872011062579</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
@@ -812,7 +812,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>1107.9693267300086</v>
+        <v>1106.5870019376086</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
@@ -820,7 +820,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>1141.0598632859692</v>
+        <v>1139.6389540329158</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
@@ -828,7 +828,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>1141.0596576161795</v>
+        <v>1139.6387486310105</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
@@ -836,7 +836,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>1173.8639691163544</v>
+        <v>1172.4050366702145</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
@@ -844,7 +844,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>1173.8637572537725</v>
+        <v>1172.4048250829519</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
@@ -852,7 +852,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>1206.3891653509393</v>
+        <v>1204.8927506424152</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
@@ -860,7 +860,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>1206.3889473424886</v>
+        <v>1204.8925329166218</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
@@ -868,7 +868,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>1238.6424662635698</v>
+        <v>1237.1090912264369</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
@@ -876,7 +876,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>1238.6422421551367</v>
+        <v>1237.108867407904</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
@@ -884,7 +884,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>1270.6305964952012</v>
+        <v>1269.0607650699335</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
@@ -892,7 +892,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>1270.6303663316719</v>
+        <v>1269.0605352034563</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
@@ -900,7 +900,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>1302.3600075441241</v>
+        <v>1300.754206612098</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
@@ -908,7 +908,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>1302.3597713694194</v>
+        <v>1300.7539707415081</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
@@ -916,7 +916,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>1333.8368930673505</v>
+        <v>1332.1955933214995</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
@@ -924,7 +924,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>1333.8366509244599</v>
+        <v>1332.1953514897002</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
@@ -932,7 +932,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>1365.0672030963358</v>
+        <v>1363.3908598535509</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
@@ -940,7 +940,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>1365.0669550273487</v>
+        <v>1363.3906121025489</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
@@ -948,7 +948,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>1396.0566572597863</v>
+        <v>1394.3457112198346</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
@@ -956,7 +956,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>1396.0564033059238</v>
+        <v>1394.345457590769</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
@@ -964,7 +964,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>1426.8107570970781</v>
+        <v>1425.0656350523532</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
@@ -972,7 +972,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>1426.8104972987203</v>
+        <v>1425.065375585526</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
@@ -980,7 +980,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>1457.334797537625</v>
+        <v>1455.5559130376371</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
@@ -988,7 +988,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>1457.3345319343402</v>
+        <v>1455.5556477725399</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
@@ -996,7 +996,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>1487.6338776142707</v>
+        <v>1485.8216315884113</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
@@ -1004,7 +1004,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>1487.6336062448413</v>
+        <v>1485.8213605637523</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
@@ -1012,7 +1012,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>1517.7129104722967</v>
+        <v>1515.8676918140959</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
@@ -1020,7 +1020,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>1517.7126333747449</v>
+        <v>1515.8674150678246</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
@@ -1028,7 +1028,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>1547.5766327298722</v>
+        <v>1545.6988188456694</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
@@ -1036,7 +1036,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>1547.5763499414836</v>
+        <v>1545.6985364150014</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
@@ -1044,7 +1044,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>1577.2296132406132</v>
+        <v>1575.3195705653036</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
@@ -1052,7 +1052,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>1577.2293247979608</v>
+        <v>1575.3192824867438</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
@@ -1060,7 +1060,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>1606.6762613043018</v>
+        <v>1604.734345786585</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
@@ -1068,7 +1068,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>1606.6759672432677</v>
+        <v>1604.7340520959481</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
@@ -1076,7 +1076,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>1635.9208343676819</v>
+        <v>1633.947391927027</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
@@ -1084,7 +1084,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>1635.920534723479</v>
+        <v>1633.9470926594608</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
@@ -1092,7 +1092,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>1664.9674452535348</v>
+        <v>1662.9628122108909</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
@@ -1100,7 +1100,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>1664.9671400607253</v>
+        <v>1662.9625074008957</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
@@ -1108,7 +1108,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>1693.8200689528946</v>
+        <v>1691.7845724370022</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
@@ -1116,7 +1116,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>1693.8197582454129</v>
+        <v>1691.78426211845</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
@@ -1124,7 +1124,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>1722.4825490122689</v>
+        <v>1720.4165073432675</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
@@ -1132,7 +1132,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>1722.4822328234372</v>
+        <v>1720.4161915494203</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
@@ -1140,7 +1140,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>1750.958603545</v>
+        <v>1748.862326596899</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
@@ -1148,7 +1148,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>1750.9582819075481</v>
+        <v>1748.8620053604284</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
@@ -1156,7 +1156,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>1779.2518308934762</v>
+        <v>1777.1256204369199</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
@@ -1164,7 +1164,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>1779.2515038395577</v>
+        <v>1777.1252937899221</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.15">
@@ -1172,7 +1172,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>1807.3657149666694</v>
+        <v>1805.2098649933146</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.15">
@@ -1180,7 +1180,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>1807.3653825278789</v>
+        <v>1805.209532967328</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.15">
@@ -1188,7 +1188,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>1835.3036302754845</v>
+        <v>1833.118427305207</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.15">
@@ -1196,7 +1196,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>1835.3032924828728</v>
+        <v>1833.1180899312285</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.15">
@@ -1204,7 +1204,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>1863.0688466865786</v>
+        <v>1860.8545700586296</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.15">
@@ -1212,7 +1212,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>1863.068503570669</v>
+        <v>1860.8542273671292</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.15">
@@ -1220,7 +1220,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>1890.6645339136667</v>
+        <v>1888.4214560628104</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.15">
@@ -1228,7 +1228,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>1890.6641855044684</v>
+        <v>1888.4211080837456</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.15">
@@ -1236,7 +1236,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>1918.0937657638242</v>
+        <v>1915.822152482413</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
@@ -1244,7 +1244,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>1918.0934120908476</v>
+        <v>1915.8217992452437</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.15">
@@ -1252,7 +1252,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>1945.3595241549342</v>
+        <v>1943.0596348418055</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
@@ -1260,7 +1260,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>1945.3591652472044</v>
+        <v>1943.0592763755064</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.15">
@@ -1268,7 +1268,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>1972.4647029191863</v>
+        <v>1970.136790816196</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.15">
@@ -1276,7 +1276,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>1972.4643388052552</v>
+        <v>1970.1364271492707</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.15">
@@ -1284,7 +1284,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>1999.4121114063933</v>
+        <v>1997.056423823348</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.15">
@@ -1292,7 +1292,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>1999.4117421143526</v>
+        <v>1997.0560549838417</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.15">
@@ -1300,7 +1300,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>2026.2044778998645</v>
+        <v>2023.8212564285523</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.15">
@@ -1308,7 +1308,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>2026.2041034573588</v>
+        <v>2023.8208824440621</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.15">
@@ -1316,7 +1316,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>2052.8444528566224</v>
+        <v>2050.4339335745917</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.15">
@@ -1324,7 +1324,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>2052.8440732908598</v>
+        <v>2050.4335544722808</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.15">
@@ -1332,7 +1332,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>2079.3346119828802</v>
+        <v>2076.8970256475814</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.15">
@@ -1340,7 +1340,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>2079.3342273206431</v>
+        <v>2076.8966414541883</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.15">
@@ -1348,7 +1348,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>2105.677459154911</v>
+        <v>2103.2130313887569</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.15">
@@ -1356,7 +1356,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>2105.6770694225697</v>
+        <v>2103.2126421306075</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.15">
@@ -1364,7 +1364,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>2131.8754291947112</v>
+        <v>2129.3843806615819</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.15">
@@ -1372,7 +1372,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>2131.8750344182308</v>
+        <v>2129.383986364599</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.15">
@@ -1380,7 +1380,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>2157.9308905091784</v>
+        <v>2155.4134370828638</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.15">
@@ -1388,7 +1388,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>2157.9304907141309</v>
+        <v>2155.4130377725783</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.15">
@@ -1396,7 +1396,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>2183.8461476009343</v>
+        <v>2181.3025005259665</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.15">
@@ -1404,7 +1404,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>2183.8457428125089</v>
+        <v>2181.3020962275264</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.15">
@@ -1412,7 +1412,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>2209.6234434583339</v>
+        <v>2207.0538095036359</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.15">
@@ -1420,7 +1420,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>2209.6230337013453</v>
+        <v>2207.0534002418158</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.15">
@@ -1428,7 +1428,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>2235.2649618317027</v>
+        <v>2232.6695434374478</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.15">
@@ -1436,7 +1436,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>2235.2645471306009</v>
+        <v>2232.6691292366581</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.15">
@@ -1444,7 +1444,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>2260.7728294023477</v>
+        <v>2258.1518248204052</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.15">
@@ -1452,7 +1452,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>2260.7724097812256</v>
+        <v>2258.1514057047007</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.15">
@@ -1460,7 +1460,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>2286.1491178504589</v>
+        <v>2283.5027212787704</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.15">
@@ -1468,7 +1468,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>2286.1486933330616</v>
+        <v>2283.5022972718589</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.15">
@@ -1476,7 +1476,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>2311.3958458276052</v>
+        <v>2308.7242475388175</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.15">
@@ -1484,7 +1484,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>2311.3954164373395</v>
+        <v>2308.7238186640689</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.15">
@@ -1492,7 +1492,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>2336.5149808391538</v>
+        <v>2333.8183673038093</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.15">
@@ -1500,7 +1500,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>2336.514546599095</v>
+        <v>2333.8179335842619</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.15">
@@ -1508,7 +1508,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>2361.5084410415875</v>
+        <v>2358.78699504616</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.15">
@@ -1516,7 +1516,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>2361.508001974486</v>
+        <v>2358.7865565045295</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.15">
@@ -1524,7 +1524,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>2386.378096959379</v>
+        <v>2383.6319977194257</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.15">
@@ -1532,7 +1532,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>2386.3776530876703</v>
+        <v>2383.6315543781116</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.15">
@@ -1540,7 +1540,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>2411.1257731257897</v>
+        <v>2408.3551963944606</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.15">
@@ -1548,7 +1548,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>2411.125324471599</v>
+        <v>2408.3547482755544</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.15">
@@ -1556,7 +1556,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>2435.7532496516587</v>
+        <v>2432.9583678238091</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.15">
@@ -1564,7 +1564,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>2435.7527962368104</v>
+        <v>2432.9579149491019</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.15">
@@ -1572,7 +1572,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>2460.262263726026</v>
+        <v>2457.4432459381483</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.15">
@@ -1580,7 +1580,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>2460.2618055720473</v>
+        <v>2457.4427883291346</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.15">
@@ -1588,7 +1588,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>2484.6545110521633</v>
+        <v>2481.8115232783443</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.15">
@@ -1596,7 +1596,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>2484.6540481802949</v>
+        <v>2481.8110609562318</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.15">
@@ -1604,7 +1604,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>2508.93164722239</v>
+        <v>2506.0648523664954</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.15">
@@ -1612,7 +1612,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>2508.9311796535894</v>
+        <v>2506.0643853522097</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.15">
@@ -1620,7 +1620,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>2533.0952890348258</v>
+        <v>2530.2048470190921</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.15">
@@ -1628,7 +1628,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>2533.0948167897745</v>
+        <v>2530.2043753332832</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.15">
@@ -1636,7 +1636,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>2557.147015755058</v>
+        <v>2554.233083605267</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.15">
@@ -1644,7 +1644,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>2557.1465388541669</v>
+        <v>2554.2326072683154</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.15">
@@ -1652,7 +1652,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>2581.0883703255122</v>
+        <v>2578.1511022529112</v>
       </c>
     </row>
   </sheetData>

--- a/target/ExpertSystem-1.0-SNAPSHOT/style/images/figure_12.xlsx
+++ b/target/ExpertSystem-1.0-SNAPSHOT/style/images/figure_12.xlsx
@@ -388,7 +388,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>110.9821879626495</v>
+        <v>111.86055871331632</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -396,7 +396,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>110.9821726178854</v>
+        <v>111.86054321179428</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -404,7 +404,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>156.01312313131825</v>
+        <v>157.73520837347175</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -412,7 +412,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>156.01309969411372</v>
+        <v>157.73518462723473</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -420,7 +420,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>200.22945990769028</v>
+        <v>202.76503317905016</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -428,7 +428,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>200.22942849637295</v>
+        <v>202.76500131076801</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -436,7 +436,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>243.67485903099924</v>
+        <v>247.00450244145159</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -444,7 +444,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>243.67481975595925</v>
+        <v>247.00446256488218</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -452,7 +452,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>286.52539769485134</v>
+        <v>290.62781426124616</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -460,7 +460,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>286.52535065372297</v>
+        <v>290.62776647684422</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
@@ -468,7 +468,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>328.80496430196189</v>
+        <v>333.6601284482096</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -476,7 +476,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>328.8049095779466</v>
+        <v>333.66007284216602</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -484,7 +484,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>370.47088194253774</v>
+        <v>376.04777196820163</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -492,7 +492,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>370.47081961799938</v>
+        <v>376.04770862607842</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -500,7 +500,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>411.52017606803389</v>
+        <v>417.79850675828965</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -508,7 +508,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>411.52010623088171</v>
+        <v>417.79843577242923</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
@@ -516,7 +516,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>451.99224031210616</v>
+        <v>458.96021658584471</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -524,7 +524,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>451.99216305160076</v>
+        <v>458.96013804856818</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
@@ -532,7 +532,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>491.94206912736325</v>
+        <v>499.58293907079775</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
@@ -540,7 +540,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>491.94198452867488</v>
+        <v>499.58285306887649</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
@@ -548,7 +548,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>531.389452069659</v>
+        <v>539.68739409297245</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
@@ -556,7 +556,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>531.38936020968549</v>
+        <v>539.68730070583706</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
@@ -564,7 +564,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>570.35295665284718</v>
+        <v>579.2930039472169</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
@@ -572,7 +572,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>570.35285760620775</v>
+        <v>579.29290325190743</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
@@ -580,7 +580,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>608.85003163097156</v>
+        <v>618.41800452441828</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
@@ -588,7 +588,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>608.84992547011029</v>
+        <v>618.41789659569463</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
@@ -596,7 +596,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>646.89709930329104</v>
+        <v>657.07954451765568</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
@@ -604,7 +604,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>646.89698609857498</v>
+        <v>657.079429428102</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
@@ -612,7 +612,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>684.50963824109647</v>
+        <v>695.29377419828336</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
@@ -620,7 +620,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>684.50951806090791</v>
+        <v>695.29365201840631</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
@@ -628,7 +628,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>721.70225762489406</v>
+        <v>733.07592507292236</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
@@ -636,7 +636,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>721.70213053571808</v>
+        <v>733.07579587124383</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
@@ -644,7 +644,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>758.48876420992804</v>
+        <v>770.44038154179157</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
@@ -652,7 +652,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>758.48863027643404</v>
+        <v>770.44024538493591</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
@@ -660,7 +660,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>794.88222279507079</v>
+        <v>807.40074551953944</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
@@ -668,7 +668,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>794.88208208019114</v>
+        <v>807.40060247231645</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
@@ -676,7 +676,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>830.89501094986315</v>
+        <v>843.96989484605615</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
@@ -684,7 +684,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>830.8948635148663</v>
+        <v>843.9697449715386</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
@@ -692,7 +692,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>866.53886865290849</v>
+        <v>880.1600362020705</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
@@ -700,7 +700,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>866.53871455746855</v>
+        <v>880.15987956166759</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
@@ -708,7 +708,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>901.82494340872597</v>
+        <v>915.98275314902764</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
@@ -716,7 +716,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>901.82478271098819</v>
+        <v>915.98258980255491</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
@@ -724,7 +724,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>936.76383133689933</v>
+        <v>951.44904983179799</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
@@ -732,7 +732,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>936.76366409354262</v>
+        <v>951.44887983754245</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
@@ -740,7 +740,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>971.36561466481498</v>
+        <v>986.56939081380301</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
@@ -748,7 +748,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>971.36544093111036</v>
+        <v>986.56921422858602</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
@@ -756,7 +756,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>1005.6398960017035</v>
+        <v>1021.3537374551745</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
@@ -764,7 +764,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>1005.6397158315702</v>
+        <v>1021.3535543344098</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
@@ -772,7 +772,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>1039.595829725663</v>
+        <v>1055.8115811939804</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
@@ -780,7 +780,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>1039.5956431717207</v>
+        <v>1055.8113915917302</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
@@ -788,7 +788,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>1073.2421507756662</v>
+        <v>1089.951974047033</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
@@ -796,7 +796,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>1073.2419578892857</v>
+        <v>1089.9517780160611</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
@@ -804,7 +804,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>1106.5872011062579</v>
+        <v>1123.7835566092347</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
@@ -812,7 +812,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>1106.5870019376086</v>
+        <v>1123.7833542010553</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
@@ -820,7 +820,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>1139.6389540329158</v>
+        <v>1157.3145837979089</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
@@ -828,7 +828,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>1139.6387486310105</v>
+        <v>1157.3143750628353</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
@@ -836,7 +836,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>1172.4050366702145</v>
+        <v>1190.5529485603638</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
@@ -844,7 +844,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>1172.4048250829519</v>
+        <v>1190.5527335475533</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
@@ -852,7 +852,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>1204.8927506424152</v>
+        <v>1223.5062037383773</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
@@ -860,7 +860,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>1204.8925329166218</v>
+        <v>1223.505982495873</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
@@ -868,7 +868,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>1237.1090912264369</v>
+        <v>1256.1815822618878</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
@@ -876,7 +876,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>1237.108867407904</v>
+        <v>1256.1813548366606</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
@@ -884,7 +884,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>1269.0607650699335</v>
+        <v>1288.5860158254484</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
@@ -892,7 +892,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>1269.0605352034563</v>
+        <v>1288.5857822634343</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
@@ -900,7 +900,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>1300.754206612098</v>
+        <v>1320.7261521845844</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
@@ -908,7 +908,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>1300.7539707415081</v>
+        <v>1320.7259125307221</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
@@ -916,7 +916,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>1332.1955933214995</v>
+        <v>1352.608371194774</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
@@ -924,7 +924,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>1332.1953514897002</v>
+        <v>1352.60812549304</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
@@ -932,7 +932,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>1363.3908598535509</v>
+        <v>1384.2387997030742</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
@@ -940,7 +940,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>1363.3906121025489</v>
+        <v>1384.2385479965155</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
@@ -948,7 +948,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>1394.3457112198346</v>
+        <v>1415.6233253912042</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
@@ -956,7 +956,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>1394.345457590769</v>
+        <v>1415.623067721971</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
@@ -964,7 +964,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>1425.0656350523532</v>
+        <v>1446.767609658998</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
@@ -972,7 +972,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>1425.065375585526</v>
+        <v>1446.7673460683732</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
@@ -980,7 +980,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>1455.5559130376371</v>
+        <v>1477.6770996283481</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
@@ -988,7 +988,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>1455.5556477725399</v>
+        <v>1477.6768301567763</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
@@ -996,7 +996,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>1485.8216315884113</v>
+        <v>1508.3570393399798</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
@@ -1004,7 +1004,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>1485.8213605637523</v>
+        <v>1508.3567640270956</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
@@ -1012,7 +1012,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>1515.8676918140959</v>
+        <v>1538.8124802084583</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
@@ -1020,7 +1020,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>1515.8674150678246</v>
+        <v>1538.8121990931122</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
@@ -1028,7 +1028,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>1545.6988188456694</v>
+        <v>1569.0482907946553</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
@@ -1036,7 +1036,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>1545.6985364150014</v>
+        <v>1569.0480039149388</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
@@ -1044,7 +1044,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>1575.3195705653036</v>
+        <v>1599.0691659493928</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
@@ -1052,7 +1052,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>1575.3192824867438</v>
+        <v>1599.0688733426628</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
@@ -1060,7 +1060,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>1604.734345786585</v>
+        <v>1628.8796353770517</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
@@ -1068,7 +1068,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>1604.7340520959481</v>
+        <v>1628.8793370799533</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
@@ -1076,7 +1076,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>1633.947391927027</v>
+        <v>1658.4840716635185</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
@@ -1084,7 +1084,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>1633.9470926594608</v>
+        <v>1658.4837677120072</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
@@ -1092,7 +1092,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>1662.9628122108909</v>
+        <v>1687.8866978088865</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
@@ -1100,7 +1100,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>1662.9625074008957</v>
+        <v>1687.8863882382493</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
@@ -1108,7 +1108,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>1691.7845724370022</v>
+        <v>1717.0915943017696</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
@@ -1116,7 +1116,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>1691.78426211845</v>
+        <v>1717.0912791466458</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
@@ -1124,7 +1124,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>1720.4165073432675</v>
+        <v>1746.1027057688864</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
@@ -1132,7 +1132,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>1720.4161915494203</v>
+        <v>1746.1023850632864</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
@@ -1140,7 +1140,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>1748.862326596899</v>
+        <v>1774.9238472306902</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
@@ -1148,7 +1148,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>1748.8620053604284</v>
+        <v>1774.9235210080137</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
@@ -1156,7 +1156,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>1777.1256204369199</v>
+        <v>1803.5587099912143</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
@@ -1164,7 +1164,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>1777.1252937899221</v>
+        <v>1803.5583782842693</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.15">
@@ -1172,7 +1172,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>1805.2098649933146</v>
+        <v>1832.0108671879591</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.15">
@@ -1180,7 +1180,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>1805.209532967328</v>
+        <v>1832.0105300289788</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.15">
@@ -1188,7 +1188,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>1833.118427305207</v>
+        <v>1860.2837790255073</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.15">
@@ -1196,7 +1196,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>1833.1180899312285</v>
+        <v>1860.2834364461653</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.15">
@@ -1204,7 +1204,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>1860.8545700586296</v>
+        <v>1888.3807977146353</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.15">
@@ -1212,7 +1212,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>1860.8542273671292</v>
+        <v>1888.3804497460633</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.15">
@@ -1220,7 +1220,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>1888.4214560628104</v>
+        <v>1916.3051721369382</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.15">
@@ -1228,7 +1228,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>1888.4211080837456</v>
+        <v>1916.3048188097398</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.15">
@@ -1236,7 +1236,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>1915.822152482413</v>
+        <v>1944.0600522533921</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
@@ -1244,7 +1244,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>1915.8217992452437</v>
+        <v>1944.0596935976582</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.15">
@@ -1252,7 +1252,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>1943.0596348418055</v>
+        <v>1971.6484932738376</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
@@ -1260,7 +1260,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>1943.0592763755064</v>
+        <v>1971.6481293191605</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.15">
@@ -1268,7 +1268,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>1970.136790816196</v>
+        <v>1999.0734596030518</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.15">
@@ -1276,7 +1276,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>1970.1364271492707</v>
+        <v>1999.0730903785375</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.15">
@@ -1284,7 +1284,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>1997.056423823348</v>
+        <v>2026.3378285778713</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.15">
@@ -1292,7 +1292,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>1997.0560549838417</v>
+        <v>2026.3374541121548</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.15">
@@ -1300,7 +1300,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>2023.8212564285523</v>
+        <v>2053.4443940087467</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.15">
@@ -1308,7 +1308,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>2023.8208824440621</v>
+        <v>2053.4440143300026</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.15">
@@ -1316,7 +1316,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>2050.4339335745917</v>
+        <v>2080.3958695380879</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.15">
@@ -1324,7 +1324,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>2050.4335544722808</v>
+        <v>2080.3954846740426</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.15">
@@ -1332,7 +1332,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>2076.8970256475814</v>
+        <v>2107.1948918268704</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.15">
@@ -1340,7 +1340,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>2076.8966414541883</v>
+        <v>2107.194501804815</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.15">
@@ -1348,7 +1348,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>2103.2130313887569</v>
+        <v>2133.8440235801158</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.15">
@@ -1356,7 +1356,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>2103.2126421306075</v>
+        <v>2133.8436284269164</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.15">
@@ -1364,7 +1364,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>2129.3843806615819</v>
+        <v>2160.3457564210939</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.15">
@@ -1372,7 +1372,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>2129.383986364599</v>
+        <v>2160.3453561632036</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.15">
@@ -1380,7 +1380,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>2155.4134370828638</v>
+        <v>2186.7025136234056</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.15">
@@ -1388,7 +1388,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>2155.4130377725783</v>
+        <v>2186.7021082868732</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.15">
@@ -1396,7 +1396,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>2181.3025005259665</v>
+        <v>2212.9166527094326</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.15">
@@ -1404,7 +1404,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>2181.3020962275264</v>
+        <v>2212.9162423199132</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.15">
@@ -1412,7 +1412,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>2207.0538095036359</v>
+        <v>2238.9904679230735</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.15">
@@ -1420,7 +1420,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>2207.0534002418158</v>
+        <v>2238.9900525058397</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.15">
@@ -1428,7 +1428,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>2232.6695434374478</v>
+        <v>2264.9261925841174</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.15">
@@ -1436,7 +1436,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>2232.6691292366581</v>
+        <v>2264.9257721640665</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.15">
@@ -1444,7 +1444,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>2258.1518248204052</v>
+        <v>2290.7260013311084</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.15">
@@ -1452,7 +1452,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>2258.1514057047007</v>
+        <v>2290.7255759327736</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.15">
@@ -1460,7 +1460,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>2283.5027212787704</v>
+        <v>2316.3920122590989</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.15">
@@ -1468,7 +1468,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>2283.5022972718589</v>
+        <v>2316.3915819066565</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.15">
@@ -1476,7 +1476,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>2308.7242475388175</v>
+        <v>2341.9262889582451</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.15">
@@ -1484,7 +1484,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>2308.7238186640689</v>
+        <v>2341.9258536755242</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.15">
@@ -1492,7 +1492,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>2333.8183673038093</v>
+        <v>2367.3308424588176</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.15">
@@ -1500,7 +1500,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>2333.8179335842619</v>
+        <v>2367.3304022693069</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.15">
@@ -1508,7 +1508,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>2358.78699504616</v>
+        <v>2392.6076330878236</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.15">
@@ -1516,7 +1516,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>2358.7865565045295</v>
+        <v>2392.607188014681</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.15">
@@ -1524,7 +1524,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>2383.6319977194257</v>
+        <v>2417.7585722421063</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.15">
@@ -1532,7 +1532,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>2383.6315543781116</v>
+        <v>2417.7581223081661</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.15">
@@ -1540,7 +1540,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>2408.3551963944606</v>
+        <v>2442.7855240824651</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.15">
@@ -1548,7 +1548,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>2408.3547482755544</v>
+        <v>2442.7850693102437</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.15">
@@ -1556,7 +1556,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>2432.9583678238091</v>
+        <v>2467.6903071530596</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.15">
@@ -1564,7 +1564,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>2432.9579149491019</v>
+        <v>2467.6898475647649</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.15">
@@ -1572,7 +1572,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>2457.4432459381483</v>
+        <v>2492.4746959300933</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.15">
@@ -1580,7 +1580,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>2457.4427883291346</v>
+        <v>2492.4742315476319</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.15">
@@ -1588,7 +1588,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>2481.8115232783443</v>
+        <v>2517.1404223035029</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.15">
@@ -1596,7 +1596,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>2481.8110609562318</v>
+        <v>2517.1399531484849</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.15">
@@ -1604,7 +1604,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>2506.0648523664954</v>
+        <v>2541.6891769951771</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.15">
@@ -1612,7 +1612,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>2506.0643853522097</v>
+        <v>2541.6887030889234</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.15">
@@ -1620,7 +1620,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>2530.2048470190921</v>
+        <v>2566.1226109169888</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.15">
@@ -1628,7 +1628,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>2530.2043753332832</v>
+        <v>2566.1221322805395</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.15">
@@ -1636,7 +1636,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>2554.233083605267</v>
+        <v>2590.4423364717422</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.15">
@@ -1644,7 +1644,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>2554.2326072683154</v>
+        <v>2590.4418531258589</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.15">
@@ -1652,7 +1652,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>2578.1511022529112</v>
+        <v>2614.6499287999309</v>
       </c>
     </row>
   </sheetData>
